--- a/data/trans_camb/P18_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 9,65</t>
+          <t>-11,1; 17,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 8,64</t>
+          <t>-11,8; 15,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 3,62</t>
+          <t>-18,03; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -2,92</t>
+          <t>-15,54; 6,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 4,06</t>
+          <t>-12,45; 0,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 2,72</t>
+          <t>-8,92; 4,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,21</t>
+          <t>-8,42; 5,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 3,19</t>
+          <t>-5,12; 9,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,88</t>
+          <t>-9,5; 5,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 6,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 2,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 6,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>-34,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-52,48%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-45,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,34%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,46%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-24,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-10,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-20,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,04; 196,16</t>
+          <t>-80,57; 326,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 183,17</t>
+          <t>-83,15; 311,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 82,42</t>
+          <t>-87,32; 71,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,27; -23,64</t>
+          <t>-79,16; 126,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 32,32</t>
+          <t>-68,78; 9,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 22,1</t>
+          <t>-50,42; 45,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,16; 5,4</t>
+          <t>-46,76; 50,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 33,12</t>
+          <t>-28,48; 95,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 20,82</t>
+          <t>-59,83; 62,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,84; 76,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-53,08; 23,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-37,32; 63,44</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -0,2</t>
+          <t>-6,14; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 0,93</t>
+          <t>-3,05; 9,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 3,07</t>
+          <t>-2,79; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 0,65</t>
+          <t>-2,66; 10,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 3,81</t>
+          <t>-19,69; -3,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 3,52</t>
+          <t>-14,26; 3,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -1,48</t>
+          <t>-18,18; -1,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,67</t>
+          <t>-10,78; 8,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 1,71</t>
+          <t>-11,28; -0,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 4,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 2,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 7,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,52%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,91%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,44%</t>
+          <t>-50,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>-21,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,98%</t>
+          <t>-40,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,63%</t>
+          <t>-42,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-9,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,13; 8,7</t>
+          <t>-75,48; 207,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,1; 27,05</t>
+          <t>-41,75; 354,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 56,62</t>
+          <t>-42,63; 368,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 5,81</t>
+          <t>-41,0; 394,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 26,37</t>
+          <t>-71,65; -15,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 25,84</t>
+          <t>-52,57; 23,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,26; -12,0</t>
+          <t>-66,53; -7,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 5,81</t>
+          <t>-40,17; 50,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 15,93</t>
+          <t>-64,72; -5,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-40,72; 38,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-51,66; 20,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-30,23; 59,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 10,13</t>
+          <t>0,0; 19,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,04</t>
+          <t>0,0; 13,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 1,83</t>
+          <t>2,11; 31,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 11,13</t>
+          <t>-18,85; 5,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 11,12</t>
+          <t>-12,54; 16,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 1,52</t>
+          <t>-11,71; 18,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 8,31</t>
+          <t>-14,67; 11,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 7,27</t>
+          <t>-9,28; 3,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 12,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 11,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 16,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>182,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-59,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-50,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,44%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>-51,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,22; 75,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 206,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,4; 211,27</t>
+          <t>-81,93; 471,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 72,4</t>
+          <t>-75,35; 488,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,17; 238,01</t>
+          <t>-86,93; 339,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 228,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-69,14; 590,93</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-70,92; 767,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-59,92; 762,7</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,96</t>
+          <t>-5,76; 10,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,16</t>
+          <t>-5,1; 10,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,21</t>
+          <t>-7,77; 4,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -3,22</t>
+          <t>-5,23; 7,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,97</t>
+          <t>-13,26; -3,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 1,25</t>
+          <t>-7,95; 2,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,71</t>
+          <t>-8,81; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,16</t>
+          <t>-4,76; 6,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,38</t>
+          <t>-8,14; 0,08</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 3,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 5,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,27%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-48,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>-34,07%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,54; 61,21</t>
+          <t>-62,68; 226,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 64,46</t>
+          <t>-56,39; 226,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 43,4</t>
+          <t>-63,11; 93,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -21,71</t>
+          <t>-47,47; 163,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 14,35</t>
+          <t>-65,71; -23,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 8,39</t>
+          <t>-41,38; 15,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -14,44</t>
+          <t>-44,93; 10,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 12,04</t>
+          <t>-24,29; 46,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 3,63</t>
+          <t>-55,8; 3,35</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 36,52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-42,54; 8,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 51,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
